--- a/研发部/产品/需要整理的BOM/5W低成本BOM表 参考2018.03.07（待报价）.xlsx
+++ b/研发部/产品/需要整理的BOM/5W低成本BOM表 参考2018.03.07（待报价）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>深圳市蓝电智创科技有限公司BOM表</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>100nF/50V±20%  0603  NPO电容</t>
+  </si>
+  <si>
+    <t>可用普通X7R电容替代</t>
   </si>
   <si>
     <r>
@@ -534,6 +537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>R9</t>
@@ -551,6 +555,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>R11</t>
@@ -568,6 +573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>R1</t>
@@ -942,16 +948,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1039,13 +1045,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1056,11 +1055,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1076,25 +1070,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1107,9 +1082,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1120,7 +1103,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1133,20 +1123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1159,19 +1136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1182,13 +1157,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1215,9 +1183,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF0000FF"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1248,13 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,13 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,31 +1289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,6 +1320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,17 +1395,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,17 +1419,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,26 +1459,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,6 +1487,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1537,7 +1518,7 @@
     </border>
   </borders>
   <cellStyleXfs count="69">
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1546,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,124 +1539,109 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1684,40 +1650,55 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1729,30 +1710,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="92">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49">
@@ -1779,12 +1760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1803,7 +1778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1854,40 +1829,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,49 +1859,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,7 +1913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2010,34 +1937,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,25 +1967,10 @@
     <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,10 +1991,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4665,1526 +4571,1528 @@
   <sheetPr/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="17" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="16" customWidth="1"/>
-    <col min="10" max="11" width="6.5" style="18" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="12" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="14" customWidth="1"/>
+    <col min="10" max="11" width="6.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="16" customWidth="1"/>
     <col min="13" max="13" width="38.375" style="10" customWidth="1"/>
-    <col min="14" max="15" width="9.375" style="19"/>
-    <col min="16" max="16384" width="9" style="13"/>
+    <col min="14" max="15" width="9.375" style="17"/>
+    <col min="16" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:13">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:13">
       <c r="A2" s="10"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A3" s="24"/>
-      <c r="E3" s="22" t="s">
+      <c r="A3" s="22"/>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" ht="27" spans="1:15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73">
         <f>N5*J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73">
         <f>L6*N6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:15">
-      <c r="A7" s="35">
+    <row r="7" s="10" customFormat="1" ht="27" spans="1:15">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="93">
+      <c r="H7" s="32"/>
+      <c r="I7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="72">
         <v>4</v>
       </c>
-      <c r="K7" s="93">
-        <v>0</v>
-      </c>
-      <c r="L7" s="93">
+      <c r="K7" s="72">
+        <v>0</v>
+      </c>
+      <c r="L7" s="72">
         <f>K7*J7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="95">
-        <v>0</v>
-      </c>
-      <c r="O7" s="91">
+      <c r="M7" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="75">
+        <v>0</v>
+      </c>
+      <c r="O7" s="73">
         <f>N7*J7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="15" customHeight="1" spans="1:15">
-      <c r="A8" s="36">
+    <row r="8" s="10" customFormat="1" ht="15" customHeight="1" spans="1:15">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="29">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="93">
+      <c r="G8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="72">
         <v>2</v>
       </c>
-      <c r="K8" s="93">
-        <v>0</v>
-      </c>
-      <c r="L8" s="93">
+      <c r="K8" s="72">
+        <v>0</v>
+      </c>
+      <c r="L8" s="72">
         <f>K8*J8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="95">
-        <v>0</v>
-      </c>
-      <c r="O8" s="91">
+      <c r="M8" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="75">
+        <v>0</v>
+      </c>
+      <c r="O8" s="73">
         <f>N8*J8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:15">
-      <c r="A9" s="35">
+    <row r="9" s="10" customFormat="1" spans="1:15">
+      <c r="A9" s="33">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="29">
         <v>5</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="93">
+      <c r="G9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="72">
         <v>2</v>
       </c>
-      <c r="K9" s="93">
-        <v>0</v>
-      </c>
-      <c r="L9" s="93">
+      <c r="K9" s="72">
+        <v>0</v>
+      </c>
+      <c r="L9" s="72">
         <f>K9*J9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="95">
-        <v>0</v>
-      </c>
-      <c r="O9" s="91">
+      <c r="M9" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="75">
+        <v>0</v>
+      </c>
+      <c r="O9" s="73">
         <f>N9*J9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:15">
-      <c r="A10" s="35">
+    <row r="10" s="10" customFormat="1" spans="1:15">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="29">
         <v>7</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="93">
+      <c r="G10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="93">
-        <v>0</v>
-      </c>
-      <c r="L10" s="93">
+      <c r="K10" s="72">
+        <v>0</v>
+      </c>
+      <c r="L10" s="72">
         <f>K10*J10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="95">
-        <v>0</v>
-      </c>
-      <c r="O10" s="91">
+      <c r="M10" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="75">
+        <v>0</v>
+      </c>
+      <c r="O10" s="73">
         <f>N10*J10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:15">
-      <c r="A11" s="36">
+    <row r="11" s="10" customFormat="1" spans="1:15">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="C11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="93">
+      <c r="G11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="72">
         <v>3</v>
       </c>
-      <c r="K11" s="93">
-        <v>0</v>
-      </c>
-      <c r="L11" s="93">
+      <c r="K11" s="72">
+        <v>0</v>
+      </c>
+      <c r="L11" s="72">
         <f t="shared" ref="L11:L16" si="0">K11*J11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="95">
-        <v>0</v>
-      </c>
-      <c r="O11" s="91">
+      <c r="M11" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="75">
+        <v>0</v>
+      </c>
+      <c r="O11" s="73">
         <f t="shared" ref="O11:O16" si="1">N11*J11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:15">
-      <c r="A12" s="35">
+    <row r="12" s="10" customFormat="1" spans="1:15">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="29">
         <v>9</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="39" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="93">
+      <c r="G12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="72">
         <v>1</v>
       </c>
-      <c r="K12" s="93">
-        <v>0</v>
-      </c>
-      <c r="L12" s="93">
+      <c r="K12" s="72">
+        <v>0</v>
+      </c>
+      <c r="L12" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="95">
-        <v>0</v>
-      </c>
-      <c r="O12" s="91">
+      <c r="M12" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="75">
+        <v>0</v>
+      </c>
+      <c r="O12" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" spans="1:15">
-      <c r="A13" s="36">
+    <row r="13" s="10" customFormat="1" spans="1:15">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="29">
         <v>10</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="C13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="93">
+      <c r="G13" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="93">
-        <v>0</v>
-      </c>
-      <c r="L13" s="93">
+      <c r="K13" s="72">
+        <v>0</v>
+      </c>
+      <c r="L13" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="91">
-        <v>0</v>
-      </c>
-      <c r="O13" s="91">
+      <c r="M13" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="73">
+        <v>0</v>
+      </c>
+      <c r="O13" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:15">
-      <c r="A14" s="35">
+    <row r="14" s="10" customFormat="1" spans="1:15">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="38" t="s">
+      <c r="C14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="93">
+      <c r="G14" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="72">
         <v>1</v>
       </c>
-      <c r="K14" s="93">
+      <c r="K14" s="72">
         <v>2</v>
       </c>
-      <c r="L14" s="93">
+      <c r="L14" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="95">
+      <c r="M14" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="75">
         <v>0.02</v>
       </c>
-      <c r="O14" s="91">
+      <c r="O14" s="73">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:15">
-      <c r="A15" s="36">
+    <row r="15" s="10" customFormat="1" spans="1:15">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="29">
         <v>12</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46" t="s">
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="93">
+      <c r="G15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="72">
         <v>1</v>
       </c>
-      <c r="K15" s="93">
-        <v>0</v>
-      </c>
-      <c r="L15" s="93">
+      <c r="K15" s="72">
+        <v>0</v>
+      </c>
+      <c r="L15" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="91">
-        <v>0</v>
-      </c>
-      <c r="O15" s="91">
+      <c r="M15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="73">
+        <v>0</v>
+      </c>
+      <c r="O15" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:15">
-      <c r="A16" s="36">
+    <row r="16" s="10" customFormat="1" spans="1:15">
+      <c r="A16" s="29">
         <v>14</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="29">
         <v>12</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="C16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="93">
+      <c r="E16" s="39"/>
+      <c r="F16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="72">
         <v>3</v>
       </c>
-      <c r="K16" s="93">
-        <v>0</v>
-      </c>
-      <c r="L16" s="93">
+      <c r="K16" s="72">
+        <v>0</v>
+      </c>
+      <c r="L16" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="91">
-        <v>0</v>
-      </c>
-      <c r="O16" s="91">
+      <c r="M16" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="73">
+        <v>0</v>
+      </c>
+      <c r="O16" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:15">
-      <c r="A17" s="35">
+    <row r="17" s="10" customFormat="1" spans="1:15">
+      <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="29">
         <v>13</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="40" t="s">
+      <c r="D17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="93">
+      <c r="G17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="72">
         <v>1</v>
       </c>
-      <c r="K17" s="93">
-        <v>0</v>
-      </c>
-      <c r="L17" s="93">
+      <c r="K17" s="72">
+        <v>0</v>
+      </c>
+      <c r="L17" s="72">
         <f t="shared" ref="L17:L45" si="2">K17*J17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="95">
-        <v>0</v>
-      </c>
-      <c r="O17" s="91">
+      <c r="M17" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="75">
+        <v>0</v>
+      </c>
+      <c r="O17" s="73">
         <f t="shared" ref="O17:O45" si="3">N17*J17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:15">
-      <c r="A18" s="35">
+    <row r="18" s="10" customFormat="1" spans="1:15">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="29">
         <v>15</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="38" t="s">
+      <c r="C18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="93">
+      <c r="G18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="72">
         <v>1</v>
       </c>
-      <c r="K18" s="93">
-        <v>0</v>
-      </c>
-      <c r="L18" s="93">
+      <c r="K18" s="72">
+        <v>0</v>
+      </c>
+      <c r="L18" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="97">
-        <v>0</v>
-      </c>
-      <c r="O18" s="91">
+      <c r="M18" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="77">
+        <v>0</v>
+      </c>
+      <c r="O18" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" ht="27" spans="1:15">
-      <c r="A19" s="36">
+    <row r="19" s="10" customFormat="1" ht="27" spans="1:15">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="29">
         <v>16</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39" t="s">
+      <c r="C19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="50">
+      <c r="E19" s="34"/>
+      <c r="F19" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="43">
         <v>3402</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="42" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="72">
+        <v>2</v>
+      </c>
+      <c r="K19" s="72">
+        <v>0</v>
+      </c>
+      <c r="L19" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="73">
+        <v>0</v>
+      </c>
+      <c r="O19" s="73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="37" customHeight="1" spans="1:15">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29">
+        <v>17</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="93">
+      <c r="G20" s="43">
+        <v>3401</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="72">
         <v>2</v>
       </c>
-      <c r="K19" s="93">
-        <v>0</v>
-      </c>
-      <c r="L19" s="93">
+      <c r="K20" s="72">
+        <v>0</v>
+      </c>
+      <c r="L20" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="91">
-        <v>0</v>
-      </c>
-      <c r="O19" s="91">
+      <c r="M20" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="77">
+        <v>0</v>
+      </c>
+      <c r="O20" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" ht="37" customHeight="1" spans="1:15">
-      <c r="A20" s="35">
+    <row r="21" s="10" customFormat="1" spans="1:15">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <v>18</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="43">
+        <v>3904</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="72">
+        <v>1</v>
+      </c>
+      <c r="K21" s="72">
+        <v>0</v>
+      </c>
+      <c r="L21" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="73">
+        <v>0</v>
+      </c>
+      <c r="O21" s="73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:15">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
-        <v>17</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="50">
-        <v>3401</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="93">
+      <c r="C22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="44">
+        <v>3906</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="72">
+        <v>1</v>
+      </c>
+      <c r="K22" s="72">
+        <v>0</v>
+      </c>
+      <c r="L22" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="78">
+        <v>0</v>
+      </c>
+      <c r="O22" s="73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:15">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>20</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="72">
+        <v>1</v>
+      </c>
+      <c r="K23" s="72">
+        <v>0</v>
+      </c>
+      <c r="L23" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="79">
+        <v>0</v>
+      </c>
+      <c r="O23" s="73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:15">
+      <c r="A24" s="29">
+        <v>24</v>
+      </c>
+      <c r="B24" s="29">
+        <v>22</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="72">
+        <v>1</v>
+      </c>
+      <c r="K24" s="72">
+        <v>0</v>
+      </c>
+      <c r="L24" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="79">
+        <v>0</v>
+      </c>
+      <c r="O24" s="73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:15">
+      <c r="A25" s="33">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29">
+        <v>21</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="72">
+        <v>4</v>
+      </c>
+      <c r="K25" s="72">
         <v>2</v>
       </c>
-      <c r="K20" s="93">
-        <v>0</v>
-      </c>
-      <c r="L20" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="97">
-        <v>0</v>
-      </c>
-      <c r="O20" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="11" customFormat="1" spans="1:15">
-      <c r="A21" s="36">
-        <v>20</v>
-      </c>
-      <c r="B21" s="36">
-        <v>18</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="51">
-        <v>3904</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="93">
-        <v>1</v>
-      </c>
-      <c r="K21" s="93">
-        <v>0</v>
-      </c>
-      <c r="L21" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="91">
-        <v>0</v>
-      </c>
-      <c r="O21" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="11" customFormat="1" spans="1:15">
-      <c r="A22" s="35">
-        <v>21</v>
-      </c>
-      <c r="B22" s="36">
-        <v>19</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="52">
-        <v>3906</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="93">
-        <v>1</v>
-      </c>
-      <c r="K22" s="93">
-        <v>0</v>
-      </c>
-      <c r="L22" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="98">
-        <v>0</v>
-      </c>
-      <c r="O22" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:15">
-      <c r="A23" s="53">
-        <v>22</v>
-      </c>
-      <c r="B23" s="53">
-        <v>20</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="93">
-        <v>1</v>
-      </c>
-      <c r="K23" s="93">
-        <v>0</v>
-      </c>
-      <c r="L23" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" s="99">
-        <v>0</v>
-      </c>
-      <c r="O23" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:15">
-      <c r="A24" s="53">
-        <v>24</v>
-      </c>
-      <c r="B24" s="53">
-        <v>22</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="93">
-        <v>1</v>
-      </c>
-      <c r="K24" s="93">
-        <v>0</v>
-      </c>
-      <c r="L24" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" s="99">
-        <v>0</v>
-      </c>
-      <c r="O24" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:15">
-      <c r="A25" s="56">
-        <v>23</v>
-      </c>
-      <c r="B25" s="53">
-        <v>21</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="101">
-        <v>4</v>
-      </c>
-      <c r="K25" s="101">
-        <v>2</v>
-      </c>
-      <c r="L25" s="101">
+      <c r="L25" s="72">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M25" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" s="99">
+      <c r="M25" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="79">
         <v>0.002</v>
       </c>
-      <c r="O25" s="91">
+      <c r="O25" s="73">
         <f t="shared" si="3"/>
         <v>0.008</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:15">
-      <c r="A26" s="53">
+    <row r="26" s="10" customFormat="1" spans="1:15">
+      <c r="A26" s="29">
         <v>16</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="29">
         <v>14</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="38" t="s">
+      <c r="C26" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="101">
+      <c r="F26" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="72">
         <v>4</v>
       </c>
-      <c r="K26" s="101">
+      <c r="K26" s="72">
         <v>2</v>
       </c>
-      <c r="L26" s="101">
+      <c r="L26" s="72">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M26" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26" s="99">
+      <c r="M26" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="79">
         <v>0.002</v>
       </c>
-      <c r="O26" s="91">
+      <c r="O26" s="73">
         <f t="shared" si="3"/>
         <v>0.008</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:15">
-      <c r="A27" s="56">
+    <row r="27" s="10" customFormat="1" spans="1:15">
+      <c r="A27" s="33">
         <v>25</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="29">
         <v>23</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="38" t="s">
+      <c r="C27" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="60" t="s">
+      <c r="E27" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101">
+      <c r="F27" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="72">
         <v>2</v>
       </c>
-      <c r="K27" s="101">
+      <c r="K27" s="72">
         <v>2</v>
       </c>
-      <c r="L27" s="101">
+      <c r="L27" s="72">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M27" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="N27" s="99">
+      <c r="M27" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="79">
         <v>0.002</v>
       </c>
-      <c r="O27" s="91">
+      <c r="O27" s="73">
         <f t="shared" si="3"/>
         <v>0.004</v>
       </c>
     </row>
-    <row r="28" s="11" customFormat="1" spans="1:15">
-      <c r="A28" s="53">
+    <row r="28" s="10" customFormat="1" spans="1:15">
+      <c r="A28" s="29">
         <v>26</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="29">
         <v>24</v>
       </c>
-      <c r="C28" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="38" t="s">
+      <c r="C28" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="38" t="s">
+      <c r="E28" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="104">
+      <c r="F28" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="72">
         <v>2</v>
       </c>
-      <c r="K28" s="104">
-        <v>0</v>
-      </c>
-      <c r="L28" s="104">
+      <c r="K28" s="72">
+        <v>0</v>
+      </c>
+      <c r="L28" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="105">
-        <v>0</v>
-      </c>
-      <c r="O28" s="91">
+      <c r="M28" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="81">
+        <v>0</v>
+      </c>
+      <c r="O28" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="11" customFormat="1" spans="1:15">
-      <c r="A29" s="56">
+    <row r="29" s="10" customFormat="1" spans="1:15">
+      <c r="A29" s="33">
         <v>27</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="29">
         <v>25</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="58" t="s">
+      <c r="C29" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="62" t="s">
+      <c r="E29" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="101">
+      <c r="F29" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="72">
         <v>2</v>
       </c>
-      <c r="K29" s="101">
+      <c r="K29" s="72">
         <v>2</v>
       </c>
-      <c r="L29" s="101">
+      <c r="L29" s="72">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M29" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="N29" s="106">
+      <c r="M29" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="81">
         <v>0.002</v>
       </c>
-      <c r="O29" s="91">
+      <c r="O29" s="73">
         <f t="shared" si="3"/>
         <v>0.004</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" spans="1:15">
-      <c r="A30" s="53">
+    <row r="30" s="10" customFormat="1" spans="1:15">
+      <c r="A30" s="29">
         <v>28</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="29">
         <v>26</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="63" t="s">
+      <c r="C30" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="D30" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="38" t="s">
+      <c r="E30" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="93">
+      <c r="F30" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="72">
         <v>2</v>
       </c>
-      <c r="K30" s="93">
-        <v>0</v>
-      </c>
-      <c r="L30" s="93">
+      <c r="K30" s="72">
+        <v>0</v>
+      </c>
+      <c r="L30" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="N30" s="106">
-        <v>0</v>
-      </c>
-      <c r="O30" s="91">
+      <c r="M30" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="81">
+        <v>0</v>
+      </c>
+      <c r="O30" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="11" customFormat="1" spans="1:15">
-      <c r="A31" s="56">
+    <row r="31" s="10" customFormat="1" spans="1:15">
+      <c r="A31" s="33">
         <v>29</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="29">
         <v>27</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="38" t="s">
+      <c r="C31" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="64" t="s">
+      <c r="D31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="93">
+      <c r="F31" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="72">
         <v>1</v>
       </c>
-      <c r="K31" s="93">
-        <v>0</v>
-      </c>
-      <c r="L31" s="93">
+      <c r="K31" s="72">
+        <v>0</v>
+      </c>
+      <c r="L31" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="N31" s="106">
-        <v>0</v>
-      </c>
-      <c r="O31" s="91">
+      <c r="M31" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="81">
+        <v>0</v>
+      </c>
+      <c r="O31" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:15">
-      <c r="A32" s="53">
+    <row r="32" s="10" customFormat="1" spans="1:15">
+      <c r="A32" s="29">
         <v>30</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="29">
         <v>28</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="38" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="93">
+      <c r="G32" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="72">
         <v>2</v>
       </c>
-      <c r="K32" s="93">
-        <v>0</v>
-      </c>
-      <c r="L32" s="93">
+      <c r="K32" s="72">
+        <v>0</v>
+      </c>
+      <c r="L32" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="N32" s="106">
-        <v>0</v>
-      </c>
-      <c r="O32" s="91">
+      <c r="M32" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="81">
+        <v>0</v>
+      </c>
+      <c r="O32" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="11" customFormat="1" spans="1:15">
-      <c r="A33" s="56">
+    <row r="33" s="10" customFormat="1" spans="1:15">
+      <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="29">
         <v>29</v>
       </c>
-      <c r="C33" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="E33" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="F33" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="93">
+      <c r="G33" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="72">
         <v>1</v>
       </c>
-      <c r="K33" s="93">
-        <v>0</v>
-      </c>
-      <c r="L33" s="93">
+      <c r="K33" s="72">
+        <v>0</v>
+      </c>
+      <c r="L33" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="N33" s="106">
-        <v>0</v>
-      </c>
-      <c r="O33" s="91">
+      <c r="M33" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" s="81">
+        <v>0</v>
+      </c>
+      <c r="O33" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="O34" s="19">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="17">
         <f>SUM(O5:O33)</f>
         <v>0.044</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71" t="s">
+      <c r="B36" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="72" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="I36" s="109"/>
-      <c r="J36" s="71" t="s">
+      <c r="H36" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="110" t="s">
+      <c r="I36" s="84"/>
+      <c r="J36" s="53" t="s">
         <v>124</v>
       </c>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="85" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="73">
+      <c r="A37" s="55">
         <v>1</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="112"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="87"/>
     </row>
     <row r="38" customHeight="1" spans="1:13">
-      <c r="A38" s="73">
+      <c r="A38" s="55">
         <v>2</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="112"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="87"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="73">
+      <c r="A39" s="55">
         <v>3</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="112"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="87"/>
     </row>
     <row r="41" spans="5:13">
-      <c r="E41" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="113" t="s">
+      <c r="E41" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="114"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
     </row>
     <row r="42" spans="3:13">
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="77" t="s">
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="80" t="s">
+      <c r="F42" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="115" t="s">
+      <c r="G42" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="82"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="64"/>
     </row>
     <row r="43" spans="3:13">
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="81">
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="63">
         <v>43166</v>
       </c>
-      <c r="G43" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43" s="78"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="115" t="s">
-        <v>131</v>
-      </c>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="82"/>
+      <c r="G43" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="60"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="64"/>
     </row>
     <row r="44" spans="3:13">
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="82"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="64"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:M33"/>
@@ -7314,7 +7222,7 @@
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7327,14 +7235,14 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -7342,14 +7250,14 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7357,10 +7265,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -7410,7 +7318,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7431,32 +7339,32 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" s="9">
         <v>42247</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H38" s="9">
         <v>42247</v>
@@ -7499,7 +7407,7 @@
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7512,14 +7420,14 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -7527,14 +7435,14 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7542,10 +7450,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -7595,7 +7503,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7616,32 +7524,32 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" s="9">
         <v>42247</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H38" s="9">
         <v>42247</v>
@@ -7676,25 +7584,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/研发部/产品/需要整理的BOM/5W低成本BOM表 参考2018.03.07（待报价）.xlsx
+++ b/研发部/产品/需要整理的BOM/5W低成本BOM表 参考2018.03.07（待报价）.xlsx
@@ -950,14 +950,14 @@
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -993,6 +993,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1008,12 +1014,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1069,20 +1069,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Helv"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1095,8 +1099,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1108,9 +1119,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1123,21 +1133,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1149,12 +1152,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -1162,8 +1159,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1185,6 +1183,18 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1229,43 +1239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,13 +1329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,15 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1436,10 +1437,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thick">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -1448,17 +1447,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,6 +1492,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1517,206 +1527,206 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="70">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
@@ -1725,8 +1735,9 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,22 +1789,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1802,16 +1816,16 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1883,13 +1897,13 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,7 +1915,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFill="1">
@@ -1922,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
@@ -1931,7 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,11 +1954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1952,26 +1969,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1979,10 +2005,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="4" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1991,20 +2017,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="70">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -2074,6 +2100,7 @@
     <cellStyle name="注释 2" xfId="66"/>
     <cellStyle name="常规 4" xfId="67"/>
     <cellStyle name="常规 140 2" xfId="68"/>
+    <cellStyle name="常规_Sheet1" xfId="69"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4571,8 +4598,8 @@
   <sheetPr/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I12:I13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4589,1510 +4616,1522 @@
     <col min="10" max="11" width="6.5" style="16" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="16" customWidth="1"/>
     <col min="13" max="13" width="38.375" style="10" customWidth="1"/>
-    <col min="14" max="15" width="9.375" style="17"/>
+    <col min="14" max="14" width="9.375" style="17"/>
+    <col min="15" max="15" width="9.375" style="18"/>
     <col min="16" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:13">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:13">
       <c r="A2" s="10"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A3" s="22"/>
-      <c r="E3" s="20" t="s">
+      <c r="A3" s="23"/>
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" ht="27" spans="1:15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="29">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="73">
+        <v>1</v>
+      </c>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="75">
         <f>N5*J5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="29">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="73">
+        <v>1</v>
+      </c>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73">
+        <f>SUM(L7:L33)</f>
+        <v>54.5</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="O6" s="75">
         <f>L6*N6</f>
-        <v>0</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" ht="27" spans="1:15">
-      <c r="A7" s="33">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="30">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="73">
         <v>4</v>
       </c>
-      <c r="K7" s="72">
-        <v>0</v>
-      </c>
-      <c r="L7" s="72">
+      <c r="K7" s="73">
+        <v>1</v>
+      </c>
+      <c r="L7" s="73">
         <f>K7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="75">
-        <v>0</v>
-      </c>
-      <c r="O7" s="73">
+      <c r="N7" s="77">
+        <v>0.147</v>
+      </c>
+      <c r="O7" s="75">
         <f>N7*J7</f>
-        <v>0</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" ht="15" customHeight="1" spans="1:15">
-      <c r="A8" s="29">
+      <c r="A8" s="30">
         <v>4</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="30">
         <v>3</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="72">
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="73">
         <v>2</v>
       </c>
-      <c r="K8" s="72">
-        <v>0</v>
-      </c>
-      <c r="L8" s="72">
+      <c r="K8" s="73">
+        <v>1</v>
+      </c>
+      <c r="L8" s="73">
         <f>K8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="75">
-        <v>0</v>
-      </c>
-      <c r="O8" s="73">
+      <c r="N8" s="78">
+        <v>0.0134</v>
+      </c>
+      <c r="O8" s="75">
         <f>N8*J8</f>
-        <v>0</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:15">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="30">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="34" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="72">
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="73">
         <v>2</v>
       </c>
-      <c r="K9" s="72">
-        <v>0</v>
-      </c>
-      <c r="L9" s="72">
+      <c r="K9" s="73">
+        <v>1</v>
+      </c>
+      <c r="L9" s="73">
         <f>K9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="75">
-        <v>0</v>
-      </c>
-      <c r="O9" s="73">
+      <c r="N9" s="78">
+        <v>0.0204</v>
+      </c>
+      <c r="O9" s="75">
         <f>N9*J9</f>
-        <v>0</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:15">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="30">
         <v>7</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="34" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="72">
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="73">
         <v>1</v>
       </c>
-      <c r="K10" s="72">
-        <v>0</v>
-      </c>
-      <c r="L10" s="72">
+      <c r="K10" s="73">
+        <v>1</v>
+      </c>
+      <c r="L10" s="73">
         <f>K10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="75">
-        <v>0</v>
-      </c>
-      <c r="O10" s="73">
+      <c r="N10" s="78">
+        <v>0.016</v>
+      </c>
+      <c r="O10" s="75">
         <f>N10*J10</f>
-        <v>0</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:15">
-      <c r="A11" s="29">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="30">
         <v>8</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="72">
+      <c r="H11" s="33"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="73">
         <v>3</v>
       </c>
-      <c r="K11" s="72">
-        <v>0</v>
-      </c>
-      <c r="L11" s="72">
+      <c r="K11" s="73">
+        <v>1</v>
+      </c>
+      <c r="L11" s="73">
         <f t="shared" ref="L11:L16" si="0">K11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="75">
-        <v>0</v>
-      </c>
-      <c r="O11" s="73">
+      <c r="N11" s="78">
+        <v>0.079</v>
+      </c>
+      <c r="O11" s="75">
         <f t="shared" ref="O11:O16" si="1">N11*J11</f>
-        <v>0</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:15">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>9</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="35" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="72">
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="72">
-        <v>0</v>
-      </c>
-      <c r="L12" s="72">
+      <c r="K12" s="73">
+        <v>1</v>
+      </c>
+      <c r="L12" s="73">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="75">
-        <v>0</v>
-      </c>
-      <c r="O12" s="73">
+      <c r="N12" s="77">
+        <v>0.0142</v>
+      </c>
+      <c r="O12" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:15">
-      <c r="A13" s="29">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="30">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="72">
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="72">
-        <v>0</v>
-      </c>
-      <c r="L13" s="72">
+      <c r="K13" s="73">
+        <v>1</v>
+      </c>
+      <c r="L13" s="73">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="73">
-        <v>0</v>
-      </c>
-      <c r="O13" s="73">
+      <c r="N13" s="77">
+        <v>0.0256</v>
+      </c>
+      <c r="O13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="14" s="10" customFormat="1" spans="1:15">
-      <c r="A14" s="33">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="30">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="72">
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="73">
         <v>1</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="73">
         <v>2</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="73">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="75">
-        <v>0.02</v>
-      </c>
-      <c r="O14" s="73">
+      <c r="N14" s="80">
+        <v>0.0236</v>
+      </c>
+      <c r="O14" s="75">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:15">
-      <c r="A15" s="29">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="30">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="72">
+      <c r="H15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="73">
         <v>1</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="73">
+        <v>1</v>
+      </c>
+      <c r="L15" s="73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="81">
+        <v>0.015</v>
+      </c>
+      <c r="O15" s="75">
+        <f t="shared" si="1"/>
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:15">
+      <c r="A16" s="30">
+        <v>14</v>
+      </c>
+      <c r="B16" s="30">
+        <v>12</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="73">
+        <v>3</v>
+      </c>
+      <c r="K16" s="73">
+        <v>1</v>
+      </c>
+      <c r="L16" s="73">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="81">
+        <v>0.018</v>
+      </c>
+      <c r="O16" s="75">
+        <f t="shared" si="1"/>
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:15">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30">
+        <v>13</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="73">
+        <v>1</v>
+      </c>
+      <c r="K17" s="73">
+        <v>2</v>
+      </c>
+      <c r="L17" s="73">
+        <f t="shared" ref="L17:L45" si="2">K17*J17</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="82">
+        <v>0.063</v>
+      </c>
+      <c r="O17" s="75">
+        <f t="shared" ref="O17:O45" si="3">N17*J17</f>
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:15">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30">
+        <v>15</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="73">
+        <v>1</v>
+      </c>
+      <c r="K18" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="L18" s="73">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="75">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30">
+        <v>16</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="44">
+        <v>3402</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="73">
+        <v>2</v>
+      </c>
+      <c r="K19" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="73">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="80">
+        <v>0.166</v>
+      </c>
+      <c r="O19" s="75">
+        <f t="shared" si="3"/>
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="30" customHeight="1" spans="1:15">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30">
+        <v>17</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="44">
+        <v>3401</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="73">
+        <v>2</v>
+      </c>
+      <c r="K20" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="73">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M20" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="80">
+        <v>0.119</v>
+      </c>
+      <c r="O20" s="75">
+        <f t="shared" si="3"/>
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:15">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30">
+        <v>18</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="44">
+        <v>3904</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="73">
+        <v>1</v>
+      </c>
+      <c r="K21" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="73">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="80">
+        <v>0.0308</v>
+      </c>
+      <c r="O21" s="75">
+        <f t="shared" si="3"/>
+        <v>0.0308</v>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:15">
+      <c r="A22" s="34">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30">
+        <v>19</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="45">
+        <v>3906</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="73">
+        <v>1</v>
+      </c>
+      <c r="K22" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="73">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="80">
+        <v>0.0308</v>
+      </c>
+      <c r="O22" s="75">
+        <f t="shared" si="3"/>
+        <v>0.0308</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:15">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30">
+        <v>20</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="73">
+        <v>1</v>
+      </c>
+      <c r="K23" s="73">
+        <v>2</v>
+      </c>
+      <c r="L23" s="73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O23" s="75">
+        <f t="shared" si="3"/>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:15">
+      <c r="A24" s="30">
+        <v>24</v>
+      </c>
+      <c r="B24" s="30">
+        <v>22</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="73">
+        <v>1</v>
+      </c>
+      <c r="K24" s="73">
+        <v>1</v>
+      </c>
+      <c r="L24" s="73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O24" s="75">
+        <f t="shared" si="3"/>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:15">
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30">
+        <v>21</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="73">
+        <v>4</v>
+      </c>
+      <c r="K25" s="73">
+        <v>1</v>
+      </c>
+      <c r="L25" s="73">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O25" s="75">
+        <f t="shared" si="3"/>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:15">
+      <c r="A26" s="30">
+        <v>16</v>
+      </c>
+      <c r="B26" s="30">
+        <v>14</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="73">
+        <v>4</v>
+      </c>
+      <c r="K26" s="73">
+        <v>1</v>
+      </c>
+      <c r="L26" s="73">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O26" s="75">
+        <f t="shared" si="3"/>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:15">
+      <c r="A27" s="34">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30">
+        <v>23</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="73">
+        <v>2</v>
+      </c>
+      <c r="K27" s="73">
+        <v>1</v>
+      </c>
+      <c r="L27" s="73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O27" s="75">
+        <f t="shared" si="3"/>
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:15">
+      <c r="A28" s="30">
+        <v>26</v>
+      </c>
+      <c r="B28" s="30">
+        <v>24</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="73">
+        <v>2</v>
+      </c>
+      <c r="K28" s="73">
+        <v>1</v>
+      </c>
+      <c r="L28" s="73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O28" s="75">
+        <f t="shared" si="3"/>
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="29" s="10" customFormat="1" spans="1:15">
+      <c r="A29" s="34">
+        <v>27</v>
+      </c>
+      <c r="B29" s="30">
+        <v>25</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="73">
+        <v>2</v>
+      </c>
+      <c r="K29" s="73">
+        <v>1</v>
+      </c>
+      <c r="L29" s="73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O29" s="75">
+        <f t="shared" si="3"/>
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:15">
+      <c r="A30" s="30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="30">
+        <v>26</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="73">
+        <v>2</v>
+      </c>
+      <c r="K30" s="73">
+        <v>1</v>
+      </c>
+      <c r="L30" s="73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O30" s="75">
+        <f t="shared" si="3"/>
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="31" s="10" customFormat="1" spans="1:15">
+      <c r="A31" s="34">
+        <v>29</v>
+      </c>
+      <c r="B31" s="30">
+        <v>27</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="73">
+        <v>1</v>
+      </c>
+      <c r="K31" s="73">
+        <v>1</v>
+      </c>
+      <c r="L31" s="73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="80">
+        <v>0.002</v>
+      </c>
+      <c r="O31" s="75">
+        <f t="shared" si="3"/>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="32" s="10" customFormat="1" spans="1:15">
+      <c r="A32" s="30">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30">
+        <v>28</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="73">
+        <v>1</v>
+      </c>
+      <c r="K32" s="73">
         <v>0</v>
       </c>
-      <c r="L15" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="73">
-        <v>0</v>
-      </c>
-      <c r="O15" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:15">
-      <c r="A16" s="29">
-        <v>14</v>
-      </c>
-      <c r="B16" s="29">
-        <v>12</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="72">
-        <v>3</v>
-      </c>
-      <c r="K16" s="72">
-        <v>0</v>
-      </c>
-      <c r="L16" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="73">
-        <v>0</v>
-      </c>
-      <c r="O16" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:15">
-      <c r="A17" s="33">
-        <v>15</v>
-      </c>
-      <c r="B17" s="29">
-        <v>13</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="72">
-        <v>1</v>
-      </c>
-      <c r="K17" s="72">
-        <v>0</v>
-      </c>
-      <c r="L17" s="72">
-        <f t="shared" ref="L17:L45" si="2">K17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="75">
-        <v>0</v>
-      </c>
-      <c r="O17" s="73">
-        <f t="shared" ref="O17:O45" si="3">N17*J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="10" customFormat="1" spans="1:15">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="29">
-        <v>15</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="72">
-        <v>1</v>
-      </c>
-      <c r="K18" s="72">
-        <v>0</v>
-      </c>
-      <c r="L18" s="72">
+      <c r="L32" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="77">
+      <c r="M32" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="85">
+        <v>1.2</v>
+      </c>
+      <c r="O32" s="75">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:15">
+      <c r="A33" s="34">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30">
+        <v>29</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="73">
+        <v>1</v>
+      </c>
+      <c r="K33" s="73">
         <v>0</v>
       </c>
-      <c r="O18" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="10" customFormat="1" ht="27" spans="1:15">
-      <c r="A19" s="29">
-        <v>18</v>
-      </c>
-      <c r="B19" s="29">
-        <v>16</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="43">
-        <v>3402</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="72">
-        <v>2</v>
-      </c>
-      <c r="K19" s="72">
-        <v>0</v>
-      </c>
-      <c r="L19" s="72">
+      <c r="L33" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="73">
-        <v>0</v>
-      </c>
-      <c r="O19" s="73">
+      <c r="M33" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" s="86">
+        <v>0.16</v>
+      </c>
+      <c r="O33" s="75">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="10" customFormat="1" ht="37" customHeight="1" spans="1:15">
-      <c r="A20" s="33">
-        <v>19</v>
-      </c>
-      <c r="B20" s="29">
-        <v>17</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="43">
-        <v>3401</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="72">
-        <v>2</v>
-      </c>
-      <c r="K20" s="72">
-        <v>0</v>
-      </c>
-      <c r="L20" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="77">
-        <v>0</v>
-      </c>
-      <c r="O20" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:15">
-      <c r="A21" s="29">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29">
-        <v>18</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="43">
-        <v>3904</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="72">
-        <v>1</v>
-      </c>
-      <c r="K21" s="72">
-        <v>0</v>
-      </c>
-      <c r="L21" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="73">
-        <v>0</v>
-      </c>
-      <c r="O21" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:15">
-      <c r="A22" s="33">
-        <v>21</v>
-      </c>
-      <c r="B22" s="29">
-        <v>19</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="44">
-        <v>3906</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="72">
-        <v>1</v>
-      </c>
-      <c r="K22" s="72">
-        <v>0</v>
-      </c>
-      <c r="L22" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="78">
-        <v>0</v>
-      </c>
-      <c r="O22" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:15">
-      <c r="A23" s="29">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29">
-        <v>20</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="72">
-        <v>1</v>
-      </c>
-      <c r="K23" s="72">
-        <v>0</v>
-      </c>
-      <c r="L23" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="79">
-        <v>0</v>
-      </c>
-      <c r="O23" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:15">
-      <c r="A24" s="29">
-        <v>24</v>
-      </c>
-      <c r="B24" s="29">
-        <v>22</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="72">
-        <v>1</v>
-      </c>
-      <c r="K24" s="72">
-        <v>0</v>
-      </c>
-      <c r="L24" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="79">
-        <v>0</v>
-      </c>
-      <c r="O24" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:15">
-      <c r="A25" s="33">
-        <v>23</v>
-      </c>
-      <c r="B25" s="29">
-        <v>21</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="72">
-        <v>4</v>
-      </c>
-      <c r="K25" s="72">
-        <v>2</v>
-      </c>
-      <c r="L25" s="72">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M25" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="79">
-        <v>0.002</v>
-      </c>
-      <c r="O25" s="73">
-        <f t="shared" si="3"/>
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:15">
-      <c r="A26" s="29">
-        <v>16</v>
-      </c>
-      <c r="B26" s="29">
-        <v>14</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="72">
-        <v>4</v>
-      </c>
-      <c r="K26" s="72">
-        <v>2</v>
-      </c>
-      <c r="L26" s="72">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M26" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="N26" s="79">
-        <v>0.002</v>
-      </c>
-      <c r="O26" s="73">
-        <f t="shared" si="3"/>
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:15">
-      <c r="A27" s="33">
-        <v>25</v>
-      </c>
-      <c r="B27" s="29">
-        <v>23</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="72">
-        <v>2</v>
-      </c>
-      <c r="K27" s="72">
-        <v>2</v>
-      </c>
-      <c r="L27" s="72">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M27" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="N27" s="79">
-        <v>0.002</v>
-      </c>
-      <c r="O27" s="73">
-        <f t="shared" si="3"/>
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:15">
-      <c r="A28" s="29">
-        <v>26</v>
-      </c>
-      <c r="B28" s="29">
-        <v>24</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="72">
-        <v>2</v>
-      </c>
-      <c r="K28" s="72">
-        <v>0</v>
-      </c>
-      <c r="L28" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="N28" s="81">
-        <v>0</v>
-      </c>
-      <c r="O28" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="10" customFormat="1" spans="1:15">
-      <c r="A29" s="33">
-        <v>27</v>
-      </c>
-      <c r="B29" s="29">
-        <v>25</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="72">
-        <v>2</v>
-      </c>
-      <c r="K29" s="72">
-        <v>2</v>
-      </c>
-      <c r="L29" s="72">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M29" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="N29" s="81">
-        <v>0.002</v>
-      </c>
-      <c r="O29" s="73">
-        <f t="shared" si="3"/>
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="30" s="10" customFormat="1" spans="1:15">
-      <c r="A30" s="29">
-        <v>28</v>
-      </c>
-      <c r="B30" s="29">
-        <v>26</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="72">
-        <v>2</v>
-      </c>
-      <c r="K30" s="72">
-        <v>0</v>
-      </c>
-      <c r="L30" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="N30" s="81">
-        <v>0</v>
-      </c>
-      <c r="O30" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="10" customFormat="1" spans="1:15">
-      <c r="A31" s="33">
-        <v>29</v>
-      </c>
-      <c r="B31" s="29">
-        <v>27</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="72">
-        <v>1</v>
-      </c>
-      <c r="K31" s="72">
-        <v>0</v>
-      </c>
-      <c r="L31" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="81">
-        <v>0</v>
-      </c>
-      <c r="O31" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="10" customFormat="1" spans="1:15">
-      <c r="A32" s="29">
-        <v>30</v>
-      </c>
-      <c r="B32" s="29">
-        <v>28</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="72">
-        <v>2</v>
-      </c>
-      <c r="K32" s="72">
-        <v>0</v>
-      </c>
-      <c r="L32" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="81">
-        <v>0</v>
-      </c>
-      <c r="O32" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:15">
-      <c r="A33" s="33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="29">
-        <v>29</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="72">
-        <v>1</v>
-      </c>
-      <c r="K33" s="72">
-        <v>0</v>
-      </c>
-      <c r="L33" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" s="81">
-        <v>0</v>
-      </c>
-      <c r="O33" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="83"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
       <c r="N34" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="18">
         <f>SUM(O5:O33)</f>
-        <v>0.044</v>
+        <v>4.8786</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="53" t="s">
+      <c r="I36" s="89"/>
+      <c r="J36" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="85" t="s">
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="90" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="55">
+      <c r="A37" s="56">
         <v>1</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="87"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="92"/>
     </row>
     <row r="38" customHeight="1" spans="1:13">
-      <c r="A38" s="55">
+      <c r="A38" s="56">
         <v>2</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="87"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="92"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="55">
+      <c r="A39" s="56">
         <v>3</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="87"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="92"/>
     </row>
     <row r="41" spans="5:13">
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="88" t="s">
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="89"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="94"/>
     </row>
     <row r="42" spans="3:13">
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="58" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="90" t="s">
+      <c r="H42" s="61"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="64"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="65"/>
     </row>
     <row r="43" spans="3:13">
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="58" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="64">
         <v>43166</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="90" t="s">
+      <c r="H43" s="61"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="64"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="65"/>
     </row>
     <row r="44" spans="3:13">
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="64"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:M33"/>
